--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02168E81-032A-4D11-9F6D-428A8B85BBD7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>REPRESENTANTE</t>
   </si>
@@ -110,11 +114,14 @@
   <si>
     <t>SECRETARIA: MIA VALLENILLA</t>
   </si>
+  <si>
+    <t>UCAB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,46 +270,46 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -314,6 +321,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -336,7 +346,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPr id="3" name="2 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -404,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,9 +453,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,6 +505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,257 +710,265 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="12" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
+    <sortCondition ref="A8"/>
+  </sortState>
   <mergeCells count="48">
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -920,54 +978,27 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02168E81-032A-4D11-9F6D-428A8B85BBD7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0FEB0-3757-4EDB-A384-8F334B6C145B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +282,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,13 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +710,7 @@
   <dimension ref="A7:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,265 +719,257 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -983,19 +984,27 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0FEB0-3757-4EDB-A384-8F334B6C145B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72208938-AD88-4D12-9CF9-64C64C0E87AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,43 +282,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A7:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,257 +719,265 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="11" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="6" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -984,27 +992,19 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72208938-AD88-4D12-9CF9-64C64C0E87AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A6A50-6E5E-4C60-9D17-22A849E25729}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,6 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,18 +319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A7:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,265 +719,257 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -992,19 +984,27 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A6A50-6E5E-4C60-9D17-22A849E25729}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7D80F-6E93-4A46-96F5-604137AB5404}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,16 +106,16 @@
     <t xml:space="preserve">TOPICO: REFORMA DEL MODELO EDUCATIVO EN VENEZUELA </t>
   </si>
   <si>
-    <t>PRESIDENTE: JEIMY MARCANO</t>
-  </si>
-  <si>
-    <t>VICE-PRESIDENTE: JORGE ALVIAREZ</t>
-  </si>
-  <si>
-    <t>SECRETARIA: MIA VALLENILLA</t>
-  </si>
-  <si>
     <t>UCAB</t>
+  </si>
+  <si>
+    <t>PRESIDENTE: RAMSÉS BADUEL</t>
+  </si>
+  <si>
+    <t>VICE-PRESIDENTE: CAMILA VARGAS</t>
+  </si>
+  <si>
+    <t>SECRETARIA: JEIMY MARCANO</t>
   </si>
 </sst>
 </file>
@@ -282,43 +282,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A7:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,257 +719,265 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="12" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -984,27 +992,19 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7D80F-6E93-4A46-96F5-604137AB5404}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A6CF6-5A77-4976-ACA9-EE320A3C3AF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,6 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,18 +319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,265 +719,257 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -992,19 +984,27 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A6CF6-5A77-4976-ACA9-EE320A3C3AF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D6508F-EAF2-4A95-AF92-2FF8885F9833}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,43 +282,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +710,7 @@
   <dimension ref="A7:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,257 +719,265 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="12" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="7" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -984,27 +992,19 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/matri/cie_mmg.xlsx
+++ b/matri/cie_mmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Colegío\M.U.N\MAPISMUN\mapismun_pag\matri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D6508F-EAF2-4A95-AF92-2FF8885F9833}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A009820-2252-41BD-B977-A659925B66A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="14115" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,6 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,18 +319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,265 +719,257 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C27">
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="48">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -992,19 +984,27 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
